--- a/data/iceland_basline_coordinates_caluclations.xlsx
+++ b/data/iceland_basline_coordinates_caluclations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L50"/>
+  <dimension ref="A2:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,7 +482,7 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E50" si="0">(B4+(((C4*60) + D4)/3600))</f>
+        <f t="shared" ref="E4:E64" si="0">(B4+(((C4*60) + D4)/3600))</f>
         <v>66.13462222222222</v>
       </c>
       <c r="G4" s="1">
@@ -495,11 +495,11 @@
         <v>48.81</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J50" si="1">(-1)*(G4+(((H4*60) + I4)/3600))</f>
+        <f t="shared" ref="J4:J64" si="1">(-1)*(G4+(((H4*60) + I4)/3600))</f>
         <v>-20.180225</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L50" si="2">CONCATENATE(J4, " , ", E4)</f>
+        <f t="shared" ref="L4:L64" si="2">CONCATENATE(J4, " , ", E4)</f>
         <v>-20,180225 , 66,1346222222222</v>
       </c>
     </row>
@@ -2111,6 +2111,501 @@
       <c r="L50" t="str">
         <f t="shared" si="2"/>
         <v>-22,4028305555556 , 66,4552027777778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="2"/>
+        <v>0 , 0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66</v>
+      </c>
+      <c r="C52" s="1">
+        <v>34</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="0"/>
+        <v>66.567575000000005</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1">
+        <v>18</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="1"/>
+        <v>-18.021872222222221</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" t="str">
+        <f t="shared" si="2"/>
+        <v>-18,0218722222222 , 66,567575</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66</v>
+      </c>
+      <c r="C53" s="1">
+        <v>33</v>
+      </c>
+      <c r="D53" s="1">
+        <v>33.72</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="0"/>
+        <v>66.559366666666662</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1">
+        <v>18</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="1"/>
+        <v>-18.001013888888888</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" t="str">
+        <f t="shared" si="2"/>
+        <v>-18,0010138888889 , 66,5593666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66</v>
+      </c>
+      <c r="C54" s="1">
+        <v>32</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45.09</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>66.545858333333328</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1">
+        <v>58</v>
+      </c>
+      <c r="I54" s="1">
+        <v>38.74</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="1"/>
+        <v>-17.977427777777777</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" t="str">
+        <f t="shared" si="2"/>
+        <v>-17,9774277777778 , 66,5458583333333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66</v>
+      </c>
+      <c r="C55" s="1">
+        <v>32</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="0"/>
+        <v>66.533577777777779</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1">
+        <v>17</v>
+      </c>
+      <c r="H55" s="1">
+        <v>58</v>
+      </c>
+      <c r="I55" s="1">
+        <v>40.369999999999997</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="1"/>
+        <v>-17.977880555555554</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" t="str">
+        <f t="shared" si="2"/>
+        <v>-17,9778805555556 , 66,5335777777778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66</v>
+      </c>
+      <c r="C56" s="1">
+        <v>31</v>
+      </c>
+      <c r="D56" s="1">
+        <v>29.42</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="0"/>
+        <v>66.524838888888894</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1">
+        <v>17</v>
+      </c>
+      <c r="H56" s="1">
+        <v>58</v>
+      </c>
+      <c r="I56" s="1">
+        <v>45.61</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="1"/>
+        <v>-17.97933611111111</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" t="str">
+        <f t="shared" si="2"/>
+        <v>-17,9793361111111 , 66,5248388888889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66</v>
+      </c>
+      <c r="C57" s="1">
+        <v>31</v>
+      </c>
+      <c r="D57" s="1">
+        <v>36.26</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="0"/>
+        <v>66.526738888888886</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1">
+        <v>17</v>
+      </c>
+      <c r="H57" s="1">
+        <v>59</v>
+      </c>
+      <c r="I57" s="1">
+        <v>24.84</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="1"/>
+        <v>-17.990233333333332</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" t="str">
+        <f t="shared" si="2"/>
+        <v>-17,9902333333333 , 66,5267388888889</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66</v>
+      </c>
+      <c r="C58" s="1">
+        <v>31</v>
+      </c>
+      <c r="D58" s="1">
+        <v>40.69</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="0"/>
+        <v>66.527969444444437</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1">
+        <v>17</v>
+      </c>
+      <c r="H58" s="1">
+        <v>59</v>
+      </c>
+      <c r="I58" s="1">
+        <v>43.81</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="1"/>
+        <v>-17.995502777777777</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" t="str">
+        <f t="shared" si="2"/>
+        <v>-17,9955027777778 , 66,5279694444444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66</v>
+      </c>
+      <c r="C59" s="1">
+        <v>32</v>
+      </c>
+      <c r="D59" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="0"/>
+        <v>66.537666666666667</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1">
+        <v>18</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>17.25</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="1"/>
+        <v>-18.021458333333332</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" t="str">
+        <f t="shared" si="2"/>
+        <v>-18,0214583333333 , 66,5376666666667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66</v>
+      </c>
+      <c r="C60" s="1">
+        <v>32</v>
+      </c>
+      <c r="D60" s="1">
+        <v>21.61</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="0"/>
+        <v>66.539336111111112</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1">
+        <v>18</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>22.93</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="1"/>
+        <v>-18.023036111111111</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" t="str">
+        <f t="shared" si="2"/>
+        <v>-18,0230361111111 , 66,5393361111111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66</v>
+      </c>
+      <c r="C61" s="1">
+        <v>32</v>
+      </c>
+      <c r="D61" s="1">
+        <v>33.57</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="0"/>
+        <v>66.542658333333335</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1">
+        <v>18</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="1"/>
+        <v>-18.02623611111111</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" t="str">
+        <f t="shared" si="2"/>
+        <v>-18,0262361111111 , 66,5426583333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66</v>
+      </c>
+      <c r="C62" s="1">
+        <v>33</v>
+      </c>
+      <c r="D62" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>66.551325000000006</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1">
+        <v>18</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="1"/>
+        <v>-18.030166666666666</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" t="str">
+        <f t="shared" si="2"/>
+        <v>-18,0301666666667 , 66,551325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66</v>
+      </c>
+      <c r="C63" s="1">
+        <v>34</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="0"/>
+        <v>66.567038888888888</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1">
+        <v>18</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>28.13</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="1"/>
+        <v>-18.024480555555556</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" t="str">
+        <f t="shared" si="2"/>
+        <v>-18,0244805555556 , 66,5670388888889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1">
+        <v>66</v>
+      </c>
+      <c r="C64" s="1">
+        <v>34</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="0"/>
+        <v>66.567575000000005</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1">
+        <v>18</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="J64" s="1">
+        <f t="shared" si="1"/>
+        <v>-18.021872222222221</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" t="str">
+        <f t="shared" si="2"/>
+        <v>-18,0218722222222 , 66,567575</v>
       </c>
     </row>
   </sheetData>

--- a/data/iceland_basline_coordinates_caluclations.xlsx
+++ b/data/iceland_basline_coordinates_caluclations.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19300" windowHeight="14640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Baseline" sheetId="1" r:id="rId1"/>
+    <sheet name="Jurisdiction" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -45,6 +46,84 @@
   </si>
   <si>
     <t>Coordinates</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A=N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -95,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -105,6 +184,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2612,4 +2694,3685 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" customWidth="1"/>
+    <col min="12" max="12" width="40.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19.207000000000001</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <f>(B3+(((C3*60) + D3)/3600))</f>
+        <v>63.320116666666664</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1">
+        <v>52.076000000000001</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <f>(-1)*(G3+(((H3*60) + I3)/3600))</f>
+        <v>-30.867933333333333</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" t="str">
+        <f>CONCATENATE(J3, ", ", E3)</f>
+        <v>-30,8679333333333, 63,3201166666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1">
+        <v>55.4</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E67" si="0">(B4+(((C4*60) + D4)/3600))</f>
+        <v>63.923333333333332</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J67" si="1">(-1)*(G4+(((H4*60) + I4)/3600))</f>
+        <v>-30.581666666666667</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L67" si="2">CONCATENATE(J4, ", ", E4)</f>
+        <v>-30,5816666666667, 63,9233333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>65.216666666666669</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1">
+        <v>51.4</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>-29.856666666666666</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>-29,8566666666667, 65,2166666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>66.211666666666673</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1">
+        <v>58.7</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>-28.978333333333332</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>-28,9783333333333, 66,2116666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1">
+        <v>38.4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>66.64</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>-27.765000000000001</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>-27,765, 66,64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>66.954999999999998</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1">
+        <v>59.7</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>-26.995000000000001</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>-26,995, 66,955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>67.064999999999998</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1">
+        <v>33.4</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>-26.556666666666665</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>-26,5566666666667, 67,065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>67.381666666666661</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>-25.6</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>-25,6, 67,3816666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>67.63</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>-24.441666666666666</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>-24,4416666666667, 67,63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>67.825000000000003</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>-23.026666666666667</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>-23,0266666666667, 67,825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>68.13666666666667</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>-21.75</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>-21,75, 68,1366666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>68.408333333333331</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>-20, 68,4083333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>68.763333333333335</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>-17.336666666666666</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>-17,3366666666667, 68,7633333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>-15.751666666666667</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>-15,7516666666667, 69,05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>69.084999999999994</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>-15.355</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>-15,355, 69,085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>69.356666666666669</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>-13.56</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v>-13,56, 69,3566666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>69.583333333333329</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>-13.266666666666667</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v>-13,2666666666667, 69,5833333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>69.578333333333333</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>-12.156666666666666</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v>-12,1566666666667, 69,5783333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1">
+        <v>30.7</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>69.51166666666667</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>-11.603333333333333</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" t="str">
+        <f t="shared" si="2"/>
+        <v>-11,6033333333333, 69,5116666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>69.421666666666667</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <v>59.7</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>-10.994999999999999</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" t="str">
+        <f t="shared" si="2"/>
+        <v>-10,995, 69,4216666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>69.314999999999998</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>-10.413333333333334</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" t="str">
+        <f t="shared" si="2"/>
+        <v>-10,4133333333333, 69,315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>69.191666666666663</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>9</v>
+      </c>
+      <c r="H24" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.86</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" t="str">
+        <f t="shared" si="2"/>
+        <v>-9,86, 69,1916666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>69.053333333333327</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>9</v>
+      </c>
+      <c r="H25" s="1">
+        <v>20.3</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.3383333333333329</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" t="str">
+        <f t="shared" si="2"/>
+        <v>-9,33833333333333, 69,0533333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>68.901666666666671</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1">
+        <v>51.1</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>-8.8516666666666666</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v>-8,85166666666667, 68,9016666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>68.736666666666665</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>-8.4016666666666673</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" t="str">
+        <f t="shared" si="2"/>
+        <v>-8,40166666666667, 68,7366666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>68.56</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
+        <v>7</v>
+      </c>
+      <c r="H28" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>-7.9916666666666671</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v>-7,99166666666667, 68,56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>68.37166666666667</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
+        <v>7</v>
+      </c>
+      <c r="H29" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>-7.6233333333333331</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" t="str">
+        <f t="shared" si="2"/>
+        <v>-7,62333333333333, 68,3716666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1">
+        <v>68</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>68.173333333333332</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>7</v>
+      </c>
+      <c r="H30" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1">
+        <f t="shared" si="1"/>
+        <v>-7.2966666666666669</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" t="str">
+        <f t="shared" si="2"/>
+        <v>-7,29666666666667, 68,1733333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>67.968333333333334</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1">
+        <v>7</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1">
+        <f t="shared" si="1"/>
+        <v>-7.0133333333333336</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" t="str">
+        <f t="shared" si="2"/>
+        <v>-7,01333333333333, 67,9683333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1">
+        <v>67</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>67.754999999999995</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1">
+        <f>(-1)*(G32+(((H32*60) + I32)/3600))</f>
+        <v>-6.7750000000000004</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" t="str">
+        <f t="shared" si="2"/>
+        <v>-6,775, 67,755</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>67.53</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1">
+        <f t="shared" si="1"/>
+        <v>-6.5750000000000002</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" t="str">
+        <f t="shared" si="2"/>
+        <v>-6,575, 67,53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>51</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66</v>
+      </c>
+      <c r="C34" s="1">
+        <v>40.1</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <f>(B34+(((C34*60) + D34)/3600))</f>
+        <v>66.668333333333337</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1">
+        <v>5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.9283333333333337</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" t="str">
+        <f t="shared" si="2"/>
+        <v>-5,92833333333333, 66,6683333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>52</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1">
+        <v>27</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>66.45</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.7816666666666663</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" t="str">
+        <f t="shared" si="2"/>
+        <v>-5,78166666666667, 66,45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>66.221666666666664</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.6733333333333338</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" t="str">
+        <f t="shared" si="2"/>
+        <v>-5,67333333333333, 66,2216666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1">
+        <v>65</v>
+      </c>
+      <c r="C37" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>65.99166666666666</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.6066666666666665</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" t="str">
+        <f t="shared" si="2"/>
+        <v>-5,60666666666667, 65,9916666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1">
+        <v>65</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>65.760000000000005</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1">
+        <v>5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.58</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" t="str">
+        <f t="shared" si="2"/>
+        <v>-5,58, 65,76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1">
+        <v>65</v>
+      </c>
+      <c r="C39" s="1">
+        <v>41.377000000000002</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>65.689616666666666</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>34.704000000000001</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.5784000000000002</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" t="str">
+        <f t="shared" si="2"/>
+        <v>-5,5784, 65,6896166666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1">
+        <v>65</v>
+      </c>
+      <c r="C40" s="1">
+        <v>30.437999999999999</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>65.507300000000001</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1">
+        <v>6</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1">
+        <f t="shared" si="1"/>
+        <v>-6.0858333333333334</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" t="str">
+        <f t="shared" si="2"/>
+        <v>-6,08583333333333, 65,5073</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1">
+        <v>65</v>
+      </c>
+      <c r="C41" s="1">
+        <v>13.058999999999999</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>65.217650000000006</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1">
+        <v>6</v>
+      </c>
+      <c r="H41" s="1">
+        <v>47.197000000000003</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1">
+        <f t="shared" si="1"/>
+        <v>-6.7866166666666672</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" t="str">
+        <f t="shared" si="2"/>
+        <v>-6,78661666666667, 65,21765</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1">
+        <v>64</v>
+      </c>
+      <c r="C42" s="1">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>64.5</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1">
+        <v>13.506</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1">
+        <f t="shared" si="1"/>
+        <v>-8.2250999999999994</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" t="str">
+        <f t="shared" si="2"/>
+        <v>-8,2251, 64,5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1">
+        <v>64</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1">
+        <v>9</v>
+      </c>
+      <c r="H43" s="1">
+        <v>15.012</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.2501999999999995</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" t="str">
+        <f t="shared" si="2"/>
+        <v>-9,2502, 64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="1">
+        <v>63</v>
+      </c>
+      <c r="C44" s="1">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <f t="shared" si="0"/>
+        <v>63.5</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1">
+        <v>10</v>
+      </c>
+      <c r="H44" s="1">
+        <v>18.893999999999998</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1">
+        <f t="shared" si="1"/>
+        <v>-10.3149</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" t="str">
+        <f t="shared" si="2"/>
+        <v>-10,3149, 63,5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1">
+        <v>62</v>
+      </c>
+      <c r="C45" s="1">
+        <v>32.359000000000002</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+        <v>62.539316666666664</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1">
+        <v>12</v>
+      </c>
+      <c r="H45" s="1">
+        <v>8.7240000000000002</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1">
+        <f t="shared" si="1"/>
+        <v>-12.1454</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" t="str">
+        <f t="shared" si="2"/>
+        <v>-12,1454, 62,5393166666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="1">
+        <v>61</v>
+      </c>
+      <c r="C46" s="1">
+        <v>55.567</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <f t="shared" si="0"/>
+        <v>61.926116666666665</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1">
+        <v>12</v>
+      </c>
+      <c r="H46" s="1">
+        <v>57.857999999999997</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1">
+        <f t="shared" si="1"/>
+        <v>-12.9643</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" t="str">
+        <f t="shared" si="2"/>
+        <v>-12,9643, 61,9261166666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="1">
+        <v>61</v>
+      </c>
+      <c r="C47" s="1">
+        <v>34.046999999999997</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <f t="shared" si="0"/>
+        <v>61.567450000000001</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1">
+        <v>18.381</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1">
+        <f t="shared" si="1"/>
+        <v>-13.30635</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" t="str">
+        <f t="shared" si="2"/>
+        <v>-13,30635, 61,56745</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="1">
+        <v>60</v>
+      </c>
+      <c r="C48" s="1">
+        <v>42.578000000000003</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <f t="shared" si="0"/>
+        <v>60.709633333333336</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1">
+        <v>59.94</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1">
+        <f t="shared" si="1"/>
+        <v>-13.999000000000001</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" t="str">
+        <f t="shared" si="2"/>
+        <v>-13,999, 60,7096333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>68</v>
+      </c>
+      <c r="B49" s="1">
+        <v>60</v>
+      </c>
+      <c r="C49" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1">
+        <f t="shared" si="0"/>
+        <v>60.618333333333332</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1">
+        <v>14</v>
+      </c>
+      <c r="H49" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1">
+        <f t="shared" si="1"/>
+        <v>-14.501666666666667</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" t="str">
+        <f t="shared" si="2"/>
+        <v>-14,5016666666667, 60,6183333333333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>69</v>
+      </c>
+      <c r="B50" s="1">
+        <v>60</v>
+      </c>
+      <c r="C50" s="1">
+        <v>33.9</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
+        <f>(B50+(((C50*60) + D50)/3600))</f>
+        <v>60.564999999999998</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1">
+        <v>14</v>
+      </c>
+      <c r="H50" s="1">
+        <v>42.6</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1">
+        <f t="shared" si="1"/>
+        <v>-14.71</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" t="str">
+        <f t="shared" si="2"/>
+        <v>-14,71, 60,565</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>70</v>
+      </c>
+      <c r="B51" s="1">
+        <v>60</v>
+      </c>
+      <c r="C51" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
+        <f t="shared" si="0"/>
+        <v>60.46</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1">
+        <v>15</v>
+      </c>
+      <c r="H51" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1">
+        <f t="shared" si="1"/>
+        <v>-15.141666666666667</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" t="str">
+        <f t="shared" si="2"/>
+        <v>-15,1416666666667, 60,46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>71</v>
+      </c>
+      <c r="B52" s="1">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1">
+        <f t="shared" si="0"/>
+        <v>60.038333333333334</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1">
+        <v>15</v>
+      </c>
+      <c r="H52" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1">
+        <f t="shared" si="1"/>
+        <v>-15.574999999999999</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" t="str">
+        <f t="shared" si="2"/>
+        <v>-15,575, 60,0383333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>72</v>
+      </c>
+      <c r="B53" s="1">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1">
+        <f t="shared" si="0"/>
+        <v>60.296666666666667</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1">
+        <v>16</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1">
+        <f t="shared" si="1"/>
+        <v>-16.016666666666666</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" t="str">
+        <f t="shared" si="2"/>
+        <v>-16,0166666666667, 60,2966666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>73</v>
+      </c>
+      <c r="B54" s="1">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>60.086666666666666</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1">
+        <v>16</v>
+      </c>
+      <c r="H54" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1">
+        <f>(-1)*(G54+(((H54*60) + I54)/3600))</f>
+        <v>-16.32</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" t="str">
+        <f t="shared" si="2"/>
+        <v>-16,32, 60,0866666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>74</v>
+      </c>
+      <c r="B55" s="1">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1">
+        <f t="shared" si="0"/>
+        <v>60.186666666666667</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1">
+        <v>16</v>
+      </c>
+      <c r="H55" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1">
+        <f t="shared" si="1"/>
+        <v>-16.84</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" t="str">
+        <f t="shared" si="2"/>
+        <v>-16,84, 60,1866666666667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>75</v>
+      </c>
+      <c r="B56" s="1">
+        <v>60</v>
+      </c>
+      <c r="C56" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1">
+        <f t="shared" si="0"/>
+        <v>60.143333333333331</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1">
+        <v>17</v>
+      </c>
+      <c r="H56" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1">
+        <f t="shared" si="1"/>
+        <v>-17.215</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" t="str">
+        <f t="shared" si="2"/>
+        <v>-17,215, 60,1433333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>76</v>
+      </c>
+      <c r="B57" s="1">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1">
+        <f t="shared" si="0"/>
+        <v>60.103333333333332</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1">
+        <v>17</v>
+      </c>
+      <c r="H57" s="1">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1">
+        <f t="shared" si="1"/>
+        <v>-17.671666666666667</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" t="str">
+        <f t="shared" si="2"/>
+        <v>-17,6716666666667, 60,1033333333333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>77</v>
+      </c>
+      <c r="B58" s="1">
+        <v>60</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
+        <f t="shared" si="0"/>
+        <v>60.078333333333333</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1">
+        <v>18</v>
+      </c>
+      <c r="H58" s="1">
+        <v>8</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1">
+        <f t="shared" si="1"/>
+        <v>-18.133333333333333</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" t="str">
+        <f t="shared" si="2"/>
+        <v>-18,1333333333333, 60,0783333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>78</v>
+      </c>
+      <c r="B59" s="1">
+        <v>60</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
+        <f t="shared" si="0"/>
+        <v>60.06666666666667</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1">
+        <v>18</v>
+      </c>
+      <c r="H59" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1">
+        <f t="shared" si="1"/>
+        <v>-18.295000000000002</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" t="str">
+        <f t="shared" si="2"/>
+        <v>-18,295, 60,0666666666667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>79</v>
+      </c>
+      <c r="B60" s="1">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1">
+        <f t="shared" si="0"/>
+        <v>60.006666666666668</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1">
+        <v>19</v>
+      </c>
+      <c r="H60" s="1">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1">
+        <f t="shared" si="1"/>
+        <v>-19.571666666666665</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" t="str">
+        <f t="shared" si="2"/>
+        <v>-19,5716666666667, 60,0066666666667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>80</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1">
+        <v>59</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
+        <f t="shared" si="0"/>
+        <v>60.983333333333334</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1">
+        <v>20</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1">
+        <f t="shared" si="1"/>
+        <v>-20.024999999999999</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" t="str">
+        <f t="shared" si="2"/>
+        <v>-20,025, 60,9833333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>81</v>
+      </c>
+      <c r="B62" s="1">
+        <v>59</v>
+      </c>
+      <c r="C62" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>59.971666666666664</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1">
+        <v>20</v>
+      </c>
+      <c r="H62" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1">
+        <f t="shared" si="1"/>
+        <v>-20.488333333333333</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" t="str">
+        <f t="shared" si="2"/>
+        <v>-20,4883333333333, 59,9716666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>82</v>
+      </c>
+      <c r="B63" s="1">
+        <v>59</v>
+      </c>
+      <c r="C63" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
+        <f t="shared" si="0"/>
+        <v>59.975000000000001</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1">
+        <v>20</v>
+      </c>
+      <c r="H63" s="1">
+        <v>57</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1">
+        <f t="shared" si="1"/>
+        <v>-20.95</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" t="str">
+        <f t="shared" si="2"/>
+        <v>-20,95, 59,975</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>83</v>
+      </c>
+      <c r="B64" s="1">
+        <v>59</v>
+      </c>
+      <c r="C64" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1">
+        <f>(B64+(((C64*60) + D64)/3600))</f>
+        <v>59.993333333333332</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1">
+        <v>21</v>
+      </c>
+      <c r="H64" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1">
+        <f t="shared" si="1"/>
+        <v>-21.411666666666665</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" t="str">
+        <f t="shared" si="2"/>
+        <v>-21,4116666666667, 59,9933333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>84</v>
+      </c>
+      <c r="B65" s="1">
+        <v>60</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1">
+        <f t="shared" si="0"/>
+        <v>60.026666666666664</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1">
+        <v>21</v>
+      </c>
+      <c r="H65" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1">
+        <f t="shared" si="1"/>
+        <v>-21.87</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="L65" t="str">
+        <f t="shared" si="2"/>
+        <v>-21,87, 60,0266666666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>85</v>
+      </c>
+      <c r="B66" s="1">
+        <v>60</v>
+      </c>
+      <c r="C66" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1">
+        <f t="shared" si="0"/>
+        <v>60.073333333333331</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1">
+        <v>22</v>
+      </c>
+      <c r="H66" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1">
+        <f t="shared" si="1"/>
+        <v>-22.324999999999999</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" t="str">
+        <f t="shared" si="2"/>
+        <v>-22,325, 60,0733333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>86</v>
+      </c>
+      <c r="B67" s="1">
+        <v>60</v>
+      </c>
+      <c r="C67" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1">
+        <f t="shared" si="0"/>
+        <v>60.134999999999998</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1">
+        <v>22</v>
+      </c>
+      <c r="H67" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1">
+        <f t="shared" si="1"/>
+        <v>-22.771666666666668</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" t="str">
+        <f t="shared" si="2"/>
+        <v>-22,7716666666667, 60,135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>87</v>
+      </c>
+      <c r="B68" s="1">
+        <v>60</v>
+      </c>
+      <c r="C68" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1">
+        <f t="shared" ref="E68:E87" si="3">(B68+(((C68*60) + D68)/3600))</f>
+        <v>60.215000000000003</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1">
+        <v>23</v>
+      </c>
+      <c r="H68" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1">
+        <f t="shared" ref="J68:J79" si="4">(-1)*(G68+(((H68*60) + I68)/3600))</f>
+        <v>-23.24</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" t="str">
+        <f t="shared" ref="L68:L87" si="5">CONCATENATE(J68, ", ", E68)</f>
+        <v>-23,24, 60,215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>88</v>
+      </c>
+      <c r="B69" s="1">
+        <v>60</v>
+      </c>
+      <c r="C69" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1">
+        <f t="shared" si="3"/>
+        <v>60.37166666666667</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1">
+        <v>23</v>
+      </c>
+      <c r="H69" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1">
+        <f t="shared" si="4"/>
+        <v>-23.986666666666668</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" t="str">
+        <f t="shared" si="5"/>
+        <v>-23,9866666666667, 60,3716666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>89</v>
+      </c>
+      <c r="B70" s="1">
+        <v>60</v>
+      </c>
+      <c r="C70" s="1">
+        <v>24</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
+        <f t="shared" si="3"/>
+        <v>60.4</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1">
+        <v>24</v>
+      </c>
+      <c r="H70" s="1">
+        <v>27.1</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1">
+        <f t="shared" si="4"/>
+        <v>-24.451666666666668</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" t="str">
+        <f t="shared" si="5"/>
+        <v>-24,4516666666667, 60,4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>90</v>
+      </c>
+      <c r="B71" s="1">
+        <v>60</v>
+      </c>
+      <c r="C71" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1">
+        <f t="shared" si="3"/>
+        <v>60.443333333333335</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1">
+        <v>24</v>
+      </c>
+      <c r="H71" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1">
+        <f t="shared" si="4"/>
+        <v>-24.911666666666665</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" t="str">
+        <f t="shared" si="5"/>
+        <v>-24,9116666666667, 60,4433333333333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>91</v>
+      </c>
+      <c r="B72" s="1">
+        <v>60</v>
+      </c>
+      <c r="C72" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1">
+        <f t="shared" si="3"/>
+        <v>60.501666666666665</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1">
+        <v>25</v>
+      </c>
+      <c r="H72" s="1">
+        <v>22</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1">
+        <f t="shared" si="4"/>
+        <v>-25.366666666666667</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" t="str">
+        <f t="shared" si="5"/>
+        <v>-25,3666666666667, 60,5016666666667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>92</v>
+      </c>
+      <c r="B73" s="1">
+        <v>60</v>
+      </c>
+      <c r="C73" s="1">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1">
+        <f t="shared" si="3"/>
+        <v>60.571666666666665</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1">
+        <v>25</v>
+      </c>
+      <c r="H73" s="1">
+        <v>48.9</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1">
+        <f t="shared" si="4"/>
+        <v>-25.815000000000001</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" t="str">
+        <f t="shared" si="5"/>
+        <v>-25,815, 60,5716666666667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
+        <v>93</v>
+      </c>
+      <c r="B74" s="1">
+        <v>60</v>
+      </c>
+      <c r="C74" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1">
+        <f t="shared" si="3"/>
+        <v>60.658333333333331</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1">
+        <v>26</v>
+      </c>
+      <c r="H74" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1">
+        <f t="shared" si="4"/>
+        <v>-26.253333333333334</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" t="str">
+        <f t="shared" si="5"/>
+        <v>-26,2533333333333, 60,6583333333333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>94</v>
+      </c>
+      <c r="B75" s="1">
+        <v>60</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1">
+        <f t="shared" si="3"/>
+        <v>60.756666666666668</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1">
+        <v>26</v>
+      </c>
+      <c r="H75" s="1">
+        <v>40.9</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1">
+        <f t="shared" si="4"/>
+        <v>-26.681666666666665</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="L75" t="str">
+        <f t="shared" si="5"/>
+        <v>-26,6816666666667, 60,7566666666667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>95</v>
+      </c>
+      <c r="B76" s="1">
+        <v>60</v>
+      </c>
+      <c r="C76" s="1">
+        <v>52.1</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1">
+        <f t="shared" si="3"/>
+        <v>60.868333333333332</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1">
+        <v>27</v>
+      </c>
+      <c r="H76" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1">
+        <f t="shared" si="4"/>
+        <v>-27.098333333333333</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" t="str">
+        <f t="shared" si="5"/>
+        <v>-27,0983333333333, 60,8683333333333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>96</v>
+      </c>
+      <c r="B77" s="1">
+        <v>60</v>
+      </c>
+      <c r="C77" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1">
+        <f t="shared" si="3"/>
+        <v>60.993333333333332</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1">
+        <v>27</v>
+      </c>
+      <c r="H77" s="1">
+        <v>30</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1">
+        <f t="shared" si="4"/>
+        <v>-27.5</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" t="str">
+        <f t="shared" si="5"/>
+        <v>-27,5, 60,9933333333333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>97</v>
+      </c>
+      <c r="B78" s="1">
+        <v>61</v>
+      </c>
+      <c r="C78" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1">
+        <f t="shared" si="3"/>
+        <v>61.12833333333333</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1">
+        <v>27</v>
+      </c>
+      <c r="H78" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1">
+        <f t="shared" si="4"/>
+        <v>-27.886666666666667</v>
+      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" t="str">
+        <f t="shared" si="5"/>
+        <v>-27,8866666666667, 61,1283333333333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>98</v>
+      </c>
+      <c r="B79" s="1">
+        <v>61</v>
+      </c>
+      <c r="C79" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1">
+        <f t="shared" si="3"/>
+        <v>61.276666666666664</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1">
+        <v>28</v>
+      </c>
+      <c r="H79" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1">
+        <f t="shared" si="4"/>
+        <v>-28.256666666666668</v>
+      </c>
+      <c r="K79" s="1"/>
+      <c r="L79" t="str">
+        <f t="shared" si="5"/>
+        <v>-28,2566666666667, 61,2766666666667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <v>99</v>
+      </c>
+      <c r="B80" s="1">
+        <v>61</v>
+      </c>
+      <c r="C80" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1">
+        <f t="shared" si="3"/>
+        <v>61.436666666666667</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1">
+        <v>28</v>
+      </c>
+      <c r="H80" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1">
+        <f>(-1)*(G80+(((H80*60) + I80)/3600))</f>
+        <v>-28.606666666666666</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" t="str">
+        <f t="shared" si="5"/>
+        <v>-28,6066666666667, 61,4366666666667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <v>100</v>
+      </c>
+      <c r="B81" s="1">
+        <v>61</v>
+      </c>
+      <c r="C81" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1">
+        <f t="shared" si="3"/>
+        <v>61.606666666666669</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1">
+        <v>28</v>
+      </c>
+      <c r="H81" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1">
+        <f t="shared" ref="J81:J87" si="6">(-1)*(G81+(((H81*60) + I81)/3600))</f>
+        <v>-28.936666666666667</v>
+      </c>
+      <c r="K81" s="1"/>
+      <c r="L81" t="str">
+        <f t="shared" si="5"/>
+        <v>-28,9366666666667, 61,6066666666667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>101</v>
+      </c>
+      <c r="B82" s="1">
+        <v>61</v>
+      </c>
+      <c r="C82" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1">
+        <f t="shared" si="3"/>
+        <v>61.786666666666669</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1">
+        <v>29</v>
+      </c>
+      <c r="H82" s="1">
+        <v>14</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1">
+        <f t="shared" si="6"/>
+        <v>-29.233333333333334</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" t="str">
+        <f t="shared" si="5"/>
+        <v>-29,2333333333333, 61,7866666666667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>102</v>
+      </c>
+      <c r="B83" s="1">
+        <v>61</v>
+      </c>
+      <c r="C83" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1">
+        <f t="shared" si="3"/>
+        <v>61.975000000000001</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1">
+        <v>29</v>
+      </c>
+      <c r="H83" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1">
+        <f t="shared" si="6"/>
+        <v>-29.53</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="L83" t="str">
+        <f t="shared" si="5"/>
+        <v>-29,53, 61,975</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>103</v>
+      </c>
+      <c r="B84" s="1">
+        <v>62</v>
+      </c>
+      <c r="C84" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1">
+        <f t="shared" si="3"/>
+        <v>62.173333333333332</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1">
+        <v>29</v>
+      </c>
+      <c r="H84" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1">
+        <f t="shared" si="6"/>
+        <v>-29.79</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="L84" t="str">
+        <f t="shared" si="5"/>
+        <v>-29,79, 62,1733333333333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>104</v>
+      </c>
+      <c r="B85" s="1">
+        <v>62</v>
+      </c>
+      <c r="C85" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1">
+        <f t="shared" si="3"/>
+        <v>62.37833333333333</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1">
+        <v>30</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1">
+        <f t="shared" si="6"/>
+        <v>-30.023333333333333</v>
+      </c>
+      <c r="K85" s="1"/>
+      <c r="L85" t="str">
+        <f t="shared" si="5"/>
+        <v>-30,0233333333333, 62,3783333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>105</v>
+      </c>
+      <c r="B86" s="1">
+        <v>62</v>
+      </c>
+      <c r="C86" s="1">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1">
+        <f t="shared" si="3"/>
+        <v>62.62833333333333</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1">
+        <v>30</v>
+      </c>
+      <c r="H86" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1">
+        <f t="shared" si="6"/>
+        <v>-30.261666666666667</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" t="str">
+        <f t="shared" si="5"/>
+        <v>-30,2616666666667, 62,6283333333333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="1">
+        <v>63</v>
+      </c>
+      <c r="C87" s="1">
+        <v>19.207000000000001</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1">
+        <f t="shared" si="3"/>
+        <v>63.320116666666664</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1">
+        <v>30</v>
+      </c>
+      <c r="H87" s="1">
+        <v>52.076000000000001</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1">
+        <f t="shared" si="6"/>
+        <v>-30.867933333333333</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" t="str">
+        <f t="shared" si="5"/>
+        <v>-30,8679333333333, 63,3201166666667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/data/iceland_basline_coordinates_caluclations.xlsx
+++ b/data/iceland_basline_coordinates_caluclations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19300" windowHeight="14640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16640" windowHeight="14640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -2700,23 +2700,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="5.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" customWidth="1"/>
     <col min="9" max="9" width="8.1640625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" customWidth="1"/>
     <col min="12" max="12" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4375,12 +4375,12 @@
         <v>60</v>
       </c>
       <c r="C52" s="1">
-        <v>2.2999999999999998</v>
+        <v>22.3</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1">
         <f t="shared" si="0"/>
-        <v>60.038333333333334</v>
+        <v>60.37166666666667</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1">
@@ -4397,7 +4397,7 @@
       <c r="K52" s="1"/>
       <c r="L52" t="str">
         <f t="shared" si="2"/>
-        <v>-15,575, 60,0383333333333</v>
+        <v>-15,575, 60,3716666666667</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -4441,12 +4441,12 @@
         <v>60</v>
       </c>
       <c r="C54" s="1">
-        <v>5.2</v>
+        <v>15.2</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1">
         <f t="shared" si="0"/>
-        <v>60.086666666666666</v>
+        <v>60.25333333333333</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1">
@@ -4463,7 +4463,7 @@
       <c r="K54" s="1"/>
       <c r="L54" t="str">
         <f t="shared" si="2"/>
-        <v>-16,32, 60,0866666666667</v>
+        <v>-16,32, 60,2533333333333</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -4669,7 +4669,7 @@
         <v>80</v>
       </c>
       <c r="B61" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
@@ -4677,7 +4677,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1">
         <f t="shared" si="0"/>
-        <v>60.983333333333334</v>
+        <v>59.983333333333334</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1">
@@ -4694,7 +4694,7 @@
       <c r="K61" s="1"/>
       <c r="L61" t="str">
         <f t="shared" si="2"/>
-        <v>-20,025, 60,9833333333333</v>
+        <v>-20,025, 59,9833333333333</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
